--- a/spliced/walkingToRunning/2023-03-27_19-43-15/gyroscope_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-27_19-43-15/gyroscope_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>-0.4161854982376098</v>
+        <v>-0.7805059552192688</v>
       </c>
       <c r="B2" t="n">
-        <v>2.661696434020996</v>
+        <v>-0.7913583517074585</v>
       </c>
       <c r="C2" t="n">
-        <v>-1.426389098167419</v>
+        <v>0.3286340832710266</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-3.087868690490723</v>
+        <v>0.1883520781993866</v>
       </c>
       <c r="B3" t="n">
-        <v>-3.132277011871338</v>
+        <v>0.3149188160896301</v>
       </c>
       <c r="C3" t="n">
-        <v>3.167563915252685</v>
+        <v>-0.798948347568512</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>-8.064251899719238</v>
+        <v>2.627274990081787</v>
       </c>
       <c r="B4" t="n">
-        <v>4.051333904266357</v>
+        <v>-2.136787414550781</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5699164867401123</v>
+        <v>-1.515871286392212</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3.350589513778687</v>
+        <v>-0.4161854982376098</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.077699184417725</v>
+        <v>2.661696434020996</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3270362019538879</v>
+        <v>-1.426389098167419</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2.837132215499878</v>
+        <v>-3.087868690490723</v>
       </c>
       <c r="B6" t="n">
-        <v>-3.239868640899658</v>
+        <v>-3.132277011871338</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.359277486801148</v>
+        <v>3.167563915252685</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6.7850022315979</v>
+        <v>-8.064251899719238</v>
       </c>
       <c r="B7" t="n">
-        <v>5.038301467895508</v>
+        <v>4.051333904266357</v>
       </c>
       <c r="C7" t="n">
-        <v>0.312122493982315</v>
+        <v>0.5699164867401123</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2.806239366531372</v>
+        <v>3.350589513778687</v>
       </c>
       <c r="B8" t="n">
-        <v>1.31573474407196</v>
+        <v>-4.077699184417725</v>
       </c>
       <c r="C8" t="n">
-        <v>-1.794970631599426</v>
+        <v>-0.3270362019538879</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.413057804107666</v>
+        <v>2.837132215499878</v>
       </c>
       <c r="B9" t="n">
-        <v>0.4736432135105133</v>
+        <v>-3.239868640899658</v>
       </c>
       <c r="C9" t="n">
-        <v>2.279133319854736</v>
+        <v>-1.359277486801148</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-5.49536657333374</v>
+        <v>6.7850022315979</v>
       </c>
       <c r="B10" t="n">
-        <v>-2.257694959640503</v>
+        <v>5.038301467895508</v>
       </c>
       <c r="C10" t="n">
-        <v>-2.082059383392334</v>
+        <v>0.312122493982315</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.6288388967514038</v>
+        <v>2.806239366531372</v>
       </c>
       <c r="B11" t="n">
-        <v>10.04877281188965</v>
+        <v>1.31573474407196</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.388039588928223</v>
+        <v>-1.794970631599426</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>4.64808177947998</v>
+        <v>-4.413057804107666</v>
       </c>
       <c r="B12" t="n">
-        <v>-3.816709280014038</v>
+        <v>0.4736432135105133</v>
       </c>
       <c r="C12" t="n">
-        <v>2.034122467041016</v>
+        <v>2.279133319854736</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>6.68113899230957</v>
+        <v>-5.49536657333374</v>
       </c>
       <c r="B13" t="n">
-        <v>7.193863868713379</v>
+        <v>-2.257694959640503</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3451456725597381</v>
+        <v>-2.082059383392334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.778942108154297</v>
+        <v>0.6288388967514038</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.685398578643799</v>
+        <v>10.04877281188965</v>
       </c>
       <c r="C14" t="n">
-        <v>1.103613972663879</v>
+        <v>-1.388039588928223</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-6.552108764648438</v>
+        <v>4.64808177947998</v>
       </c>
       <c r="B15" t="n">
-        <v>1.416934847831726</v>
+        <v>-3.816709280014038</v>
       </c>
       <c r="C15" t="n">
-        <v>2.430400848388672</v>
+        <v>2.034122467041016</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-3.362174272537231</v>
+        <v>6.68113899230957</v>
       </c>
       <c r="B16" t="n">
-        <v>17.18923950195312</v>
+        <v>7.193863868713379</v>
       </c>
       <c r="C16" t="n">
-        <v>-1.967010855674744</v>
+        <v>0.3451456725597381</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1.812880396842956</v>
+        <v>-2.778942108154297</v>
       </c>
       <c r="B17" t="n">
-        <v>-3.756521940231323</v>
+        <v>-2.685398578643799</v>
       </c>
       <c r="C17" t="n">
-        <v>-3.184607982635498</v>
+        <v>1.103613972663879</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8.206597328186035</v>
+        <v>-6.552108764648438</v>
       </c>
       <c r="B18" t="n">
-        <v>-8.100137710571289</v>
+        <v>1.416934847831726</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.368615627288818</v>
+        <v>2.430400848388672</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>3.973769426345825</v>
+        <v>-3.362174272537231</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.186322212219238</v>
+        <v>17.18923950195312</v>
       </c>
       <c r="C19" t="n">
-        <v>-1.423193335533142</v>
+        <v>-1.967010855674744</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-2.724081039428711</v>
+        <v>1.812880396842956</v>
       </c>
       <c r="B20" t="n">
-        <v>3.562910079956055</v>
+        <v>-3.756521940231323</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9864348769187928</v>
+        <v>-3.184607982635498</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
+        <v>8.206597328186035</v>
+      </c>
+      <c r="B21" t="n">
+        <v>-8.100137710571289</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-2.368615627288818</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>3.973769426345825</v>
+      </c>
+      <c r="B22" t="n">
+        <v>-2.186322212219238</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.423193335533142</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>-2.724081039428711</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3.562910079956055</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.9864348769187928</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
         <v>-11.11730003356934</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B24" t="n">
         <v>-16.41932106018066</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C24" t="n">
         <v>-2.057025671005249</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6.472879886627197</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-9.945176124572754</v>
+      </c>
+      <c r="C25" t="n">
+        <v>9.769540786743164</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>3.245661020278931</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-6.337657928466797</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.1816275864839553</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5.774599075317383</v>
+      </c>
+      <c r="B27" t="n">
+        <v>6.254833221435547</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.6913566589355469</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>-2.965895891189575</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-1.341034770011902</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.717206358909607</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-4.298542022705078</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1.24329674243927</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5667206645011902</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-6.537195205688477</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-4.836699962615967</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-2.582733631134033</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-1.381847739219666</v>
+      </c>
+      <c r="B31" t="n">
+        <v>14.15004062652588</v>
+      </c>
+      <c r="C31" t="n">
+        <v>5.833388328552246</v>
       </c>
     </row>
   </sheetData>
